--- a/TE/Full/TE_Analysis.xlsx
+++ b/TE/Full/TE_Analysis.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Score</t>
+          <t>Final_Score</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28.1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.7</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -581,38 +581,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>George Kittle (SF)</t>
+          <t>Sam LaPorta (DET)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.8</v>
+        <v>9.24</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>203.2</v>
+        <v>239.3</v>
       </c>
       <c r="G4" t="n">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="J4" t="n">
-        <v>63.8</v>
+        <v>52.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -621,38 +621,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Evan Engram (JAC)</t>
+          <t>George Kittle (SF)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25.2</v>
+        <v>9.19</v>
       </c>
       <c r="D5" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>230.3</v>
+        <v>203.2</v>
       </c>
       <c r="G5" t="n">
-        <v>13.5</v>
+        <v>12.7</v>
       </c>
       <c r="H5" t="n">
-        <v>6.7</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="J5" t="n">
-        <v>56.6</v>
+        <v>63.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -661,38 +661,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>David Njoku (CLE)</t>
+          <t>Evan Engram (JAC)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>8.99</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>201.2</v>
+        <v>230.3</v>
       </c>
       <c r="G6" t="n">
-        <v>12.6</v>
+        <v>13.5</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>6.7</v>
       </c>
       <c r="I6" t="n">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="J6" t="n">
-        <v>55.1</v>
+        <v>56.6</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23.2</v>
+        <v>8.85</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -741,38 +741,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sam LaPorta (DET)</t>
+          <t>David Njoku (CLE)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23.1</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>239.3</v>
+        <v>201.2</v>
       </c>
       <c r="G8" t="n">
-        <v>14.1</v>
+        <v>12.6</v>
       </c>
       <c r="H8" t="n">
         <v>5.1</v>
       </c>
       <c r="I8" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="J8" t="n">
-        <v>52.3</v>
+        <v>55.1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -781,38 +781,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Trey McBride (ARI)</t>
+          <t>Cole Kmet (CHI)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.8</v>
+        <v>7.45</v>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>181.5</v>
+        <v>181.1</v>
       </c>
       <c r="G9" t="n">
         <v>10.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J9" t="n">
-        <v>48.5</v>
+        <v>42.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -821,38 +821,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Darren Waller (FA)</t>
+          <t>Jake Ferguson (DAL)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.7</v>
+        <v>7.21</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2</v>
+        <v>177.1</v>
       </c>
       <c r="G10" t="n">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>46</v>
+        <v>44.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -861,38 +861,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jake Ferguson (DAL)</t>
+          <t>Trey McBride (ARI)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.4</v>
+        <v>6.99</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="n">
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>177.1</v>
+        <v>181.5</v>
       </c>
       <c r="G11" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>44.8</v>
+        <v>48.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -901,38 +901,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cole Kmet (CHI)</t>
+          <t>Dalton Kincaid (BUF)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.5</v>
+        <v>6.96</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>181.1</v>
+        <v>150.3</v>
       </c>
       <c r="G12" t="n">
-        <v>10.7</v>
+        <v>9.4</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J12" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -941,26 +941,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dalton Schultz (HOU)</t>
+          <t>Dallas Goedert (PHI)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.4</v>
+        <v>6.96</v>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>150.5</v>
+        <v>136.3</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>5.9</v>
@@ -969,10 +969,10 @@
         <v>42.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14">
@@ -981,38 +981,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dallas Goedert (PHI)</t>
+          <t>Darren Waller (FA)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.4</v>
+        <v>6.66</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>136.3</v>
+        <v>113.2</v>
       </c>
       <c r="G14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>42.3</v>
+        <v>46</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
@@ -1021,38 +1021,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dalton Kincaid (BUF)</t>
+          <t>Dalton Schultz (HOU)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.3</v>
+        <v>6.51</v>
       </c>
       <c r="D15" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>150.3</v>
+        <v>150.5</v>
       </c>
       <c r="G15" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J15" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="K15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="16">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16.6</v>
+        <v>5.98</v>
       </c>
       <c r="D16" t="n">
         <v>-2</v>
@@ -1101,38 +1101,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tyler Conklin (NYJ)</t>
+          <t>Jonnu Smith (MIA)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.6</v>
+        <v>5.78</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>123.1</v>
+        <v>124.2</v>
       </c>
       <c r="G17" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>36.5</v>
+        <v>34.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -1141,38 +1141,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jonnu Smith (MIA)</t>
+          <t>Taysom Hill (NO)</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>14.4</v>
+        <v>5.47</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>124.2</v>
+        <v>143.5</v>
       </c>
       <c r="G18" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>34.2</v>
+        <v>18.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -1181,38 +1181,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tyler Higbee (LAR)</t>
+          <t>Tyler Conklin (NYJ)</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14.3</v>
+        <v>5.47</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>108.5</v>
+        <v>123.1</v>
       </c>
       <c r="G19" t="n">
         <v>7.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
+        <v>36.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.4</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1221,38 +1221,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Logan Thomas (SF)</t>
+          <t>Luke Musgrave (GB)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13.9</v>
+        <v>5.39</v>
       </c>
       <c r="D20" t="n">
-        <v>-3</v>
+        <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>126.8</v>
+        <v>75.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -1261,35 +1261,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Luke Musgrave (GB)</t>
+          <t>Tyler Higbee (LAR)</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13.8</v>
+        <v>5.27</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
-        <v>75.2</v>
+        <v>108.5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L21" t="n">
         <v>0.1</v>
@@ -1301,38 +1301,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chigoziem Okonkwo (TEN)</t>
+          <t>Gerald Everett (CHI)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13.6</v>
+        <v>5.14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>113.4</v>
+        <v>111.1</v>
       </c>
       <c r="G22" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
-        <v>31.1</v>
+        <v>27.4</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
@@ -1341,38 +1341,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hunter Henry (NE)</t>
+          <t>Chigoziem Okonkwo (TEN)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13.4</v>
+        <v>5.1</v>
       </c>
       <c r="D23" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>119.9</v>
+        <v>113.4</v>
       </c>
       <c r="G23" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="K23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="24">
@@ -1381,38 +1381,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zach Ertz (WAS)</t>
+          <t>Juwan Johnson (NO)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12.9</v>
+        <v>5.05</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>51.7</v>
+        <v>97.8</v>
       </c>
       <c r="G24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>26.7</v>
+        <v>28.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25">
@@ -1421,38 +1421,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Juwan Johnson (NO)</t>
+          <t>Zach Ertz (WAS)</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12.8</v>
+        <v>4.97</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>97.8</v>
+        <v>51.7</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="J25" t="n">
-        <v>28.3</v>
+        <v>26.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
@@ -1461,38 +1461,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tanner Hudson (CIN)</t>
+          <t>Logan Thomas (SF)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12.8</v>
+        <v>4.83</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>80.2</v>
+        <v>126.8</v>
       </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>29.3</v>
+        <v>31</v>
       </c>
       <c r="K26" t="n">
         <v>0.2</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27">
@@ -1501,38 +1501,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gerald Everett (CHI)</t>
+          <t>Tanner Hudson (CIN)</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12.6</v>
+        <v>4.8</v>
       </c>
       <c r="D27" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>111.1</v>
+        <v>80.2</v>
       </c>
       <c r="G27" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>27.4</v>
+        <v>29.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
@@ -1541,38 +1541,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cade Otton (TB)</t>
+          <t>Hunter Henry (NE)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>4.63</v>
       </c>
       <c r="D28" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>116.5</v>
+        <v>119.9</v>
       </c>
       <c r="G28" t="n">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="J28" t="n">
-        <v>26.8</v>
+        <v>29.9</v>
       </c>
       <c r="K28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="29">
@@ -1581,38 +1581,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pat Freiermuth (PIT)</t>
+          <t>Isaiah Likely (BAL)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11.4</v>
+        <v>4.63</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>76.8</v>
+        <v>101.1</v>
       </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="I29" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="J29" t="n">
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
@@ -1621,38 +1621,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kylen Granson (IND)</t>
+          <t>Pat Freiermuth (PIT)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10.4</v>
+        <v>4.58</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>73</v>
+        <v>76.8</v>
       </c>
       <c r="G30" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J30" t="n">
-        <v>24.5</v>
+        <v>25.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
@@ -1661,38 +1661,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Isaiah Likely (BAL)</t>
+          <t>Cade Otton (TB)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10.2</v>
+        <v>4.38</v>
       </c>
       <c r="D31" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="E31" t="n">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>101.1</v>
+        <v>116.5</v>
       </c>
       <c r="G31" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="H31" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2</v>
+        <v>26.8</v>
       </c>
       <c r="K31" t="n">
         <v>0.4</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
@@ -1701,38 +1701,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Noah Fant (SEA)</t>
+          <t>Kylen Granson (IND)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>4.12</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
@@ -1741,38 +1741,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Durham Smythe (MIA)</t>
+          <t>Donald Parham Jr. (LAC)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.6</v>
+        <v>3.97</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>71.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>5.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J33" t="n">
-        <v>22.9</v>
+        <v>20.4</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
@@ -1781,38 +1781,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Michael Mayer (LV)</t>
+          <t>Noah Fant (SEA)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.300000000000001</v>
+        <v>3.92</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>71.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="H34" t="n">
         <v>1.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>21.7</v>
+        <v>24.4</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1821,23 +1821,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Donald Parham Jr. (LAC)</t>
+          <t>Michael Mayer (LV)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.1</v>
+        <v>3.89</v>
       </c>
       <c r="D35" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>79.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="H35" t="n">
         <v>1.9</v>
@@ -1846,13 +1846,13 @@
         <v>2.9</v>
       </c>
       <c r="J35" t="n">
-        <v>20.4</v>
+        <v>21.7</v>
       </c>
       <c r="K35" t="n">
         <v>0.1</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -1861,35 +1861,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Taysom Hill (NO)</t>
+          <t>Tucker Kraft (GB)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="n">
-        <v>-23</v>
+        <v>-6</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5</v>
+        <v>78.5</v>
       </c>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="I36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
-        <v>18.2</v>
+        <v>20.9</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L36" t="n">
         <v>0.1</v>
@@ -1901,35 +1901,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tucker Kraft (GB)</t>
+          <t>Hayden Hurst (LAC)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.800000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="D37" t="n">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>78.5</v>
+        <v>42.4</v>
       </c>
       <c r="G37" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H37" t="n">
         <v>1.8</v>
       </c>
       <c r="I37" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>20.9</v>
+        <v>18.4</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L37" t="n">
         <v>0.1</v>
@@ -1941,35 +1941,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nick Muse (MIN)</t>
+          <t>Durham Smythe (MIA)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.4</v>
+        <v>3.53</v>
       </c>
       <c r="D38" t="n">
-        <v>66</v>
+        <v>-3</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>3.2</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
-        <v>22</v>
+        <v>22.9</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -1981,35 +1981,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hayden Hurst (LAC)</t>
+          <t>Noah Gray (KC)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>42.4</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G39" t="n">
         <v>4.2</v>
       </c>
       <c r="H39" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="J39" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L39" t="n">
         <v>0.1</v>
@@ -2021,38 +2021,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Noah Gray (KC)</t>
+          <t>Dawson Knox (BUF)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7.7</v>
+        <v>3.26</v>
       </c>
       <c r="D40" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>70.59999999999999</v>
+        <v>54.6</v>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I40" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>17.9</v>
+        <v>15.5</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="41">
@@ -2061,35 +2061,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dawson Knox (BUF)</t>
+          <t>Brevin Jordan (HOU)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7.2</v>
+        <v>3.08</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>54.6</v>
+        <v>50.9</v>
       </c>
       <c r="G41" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="J41" t="n">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L41" t="n">
         <v>0.2</v>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.2</v>
+        <v>3.06</v>
       </c>
       <c r="D42" t="n">
         <v>14</v>
@@ -2141,35 +2141,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Brevin Jordan (HOU)</t>
+          <t>Tommy Tremble (CAR)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7</v>
+        <v>2.94</v>
       </c>
       <c r="D43" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="E43" t="n">
-        <v>13</v>
-      </c>
-      <c r="F43" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.6</v>
-      </c>
       <c r="J43" t="n">
-        <v>16.8</v>
+        <v>12.1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L43" t="n">
         <v>0.2</v>
@@ -2181,38 +2181,38 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mike Gesicki (CIN)</t>
+          <t>Nick Muse (MIN)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.6</v>
+        <v>2.92</v>
       </c>
       <c r="D44" t="n">
-        <v>-6</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>65.40000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>14.4</v>
+        <v>22</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2221,35 +2221,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Colby Parkinson (LAR)</t>
+          <t>Mike Gesicki (CIN)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6.4</v>
+        <v>2.91</v>
       </c>
       <c r="D45" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E45" t="n">
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>61.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="J45" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0.1</v>
@@ -2261,38 +2261,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Daniel Bellinger (NYG)</t>
+          <t>Colby Parkinson (LAR)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6.3</v>
+        <v>2.91</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E46" t="n">
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>50.5</v>
+        <v>61.7</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
         <v>1.5</v>
       </c>
       <c r="I46" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="K46" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
@@ -2301,35 +2301,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Elijah Higgins (ARI)</t>
+          <t>Lucas Krull (DEN)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.3</v>
+        <v>2.91</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>36.3</v>
+        <v>23.5</v>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="I47" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L47" t="n">
         <v>0.1</v>
@@ -2341,35 +2341,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lucas Krull (DEN)</t>
+          <t>Elijah Higgins (ARI)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.9</v>
+        <v>2.76</v>
       </c>
       <c r="D48" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F48" t="n">
-        <v>23.5</v>
+        <v>36.3</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="J48" t="n">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L48" t="n">
         <v>0.1</v>
@@ -2381,38 +2381,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Austin Hooper (NE)</t>
+          <t>Josh Oliver (MIN)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5.9</v>
+        <v>2.69</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E49" t="n">
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>48.4</v>
+        <v>53.3</v>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I49" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="J49" t="n">
-        <v>13.8</v>
+        <v>12.5</v>
       </c>
       <c r="K49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Adam Trautman (DEN)</t>
+          <t>Daniel Bellinger (NYG)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5.6</v>
+        <v>2.62</v>
       </c>
       <c r="D50" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E50" t="n">
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>60.4</v>
+        <v>50.5</v>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="J50" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2461,35 +2461,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Foster Moreau (NO)</t>
+          <t>Pharaoh Brown (SEA)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5.6</v>
+        <v>2.62</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>46.3</v>
+        <v>37.8</v>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="I51" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="J51" t="n">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L51" t="n">
         <v>0.1</v>
@@ -2501,35 +2501,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tommy Tremble (CAR)</t>
+          <t>Drew Ogletree (IND)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5.6</v>
+        <v>2.62</v>
       </c>
       <c r="D52" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>60.4</v>
+        <v>35.7</v>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L52" t="n">
         <v>0.2</v>
@@ -2541,35 +2541,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Josh Oliver (MIN)</t>
+          <t>Foster Moreau (NO)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5.5</v>
+        <v>2.57</v>
       </c>
       <c r="D53" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="E53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>53.3</v>
+        <v>46.3</v>
       </c>
       <c r="G53" t="n">
         <v>3.1</v>
       </c>
       <c r="H53" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I53" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J53" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="K53" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L53" t="n">
         <v>0.1</v>
@@ -2581,38 +2581,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Greg Dulcich (DEN)</t>
+          <t>Adam Trautman (DEN)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5.5</v>
+        <v>2.53</v>
       </c>
       <c r="D54" t="n">
-        <v>44</v>
+        <v>-14</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>5.5</v>
+        <v>60.4</v>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="55">
@@ -2621,35 +2621,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Drew Ogletree (IND)</t>
+          <t>Mo Alie-Cox (IND)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5.3</v>
+        <v>2.52</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>35.7</v>
+        <v>49.1</v>
       </c>
       <c r="G55" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0.8</v>
       </c>
       <c r="I55" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J55" t="n">
-        <v>12.2</v>
+        <v>9.5</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L55" t="n">
         <v>0.2</v>
@@ -2661,32 +2661,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Stephen Sullivan (CAR)</t>
+          <t>Austin Hooper (NE)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5.1</v>
+        <v>2.47</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>-7</v>
       </c>
       <c r="E56" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>24.5</v>
+        <v>48.4</v>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I56" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="J56" t="n">
-        <v>11.4</v>
+        <v>13.8</v>
       </c>
       <c r="K56" t="n">
         <v>0.1</v>
@@ -2701,35 +2701,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pharaoh Brown (SEA)</t>
+          <t>Stone Smartt (LAC)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4.9</v>
+        <v>2.38</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>37.8</v>
+        <v>32.5</v>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="J57" t="n">
-        <v>12.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L57" t="n">
         <v>0.1</v>
@@ -2741,35 +2741,35 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Irv Smith Jr. (KC)</t>
+          <t>Johnny Mundt (MIN)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4.7</v>
+        <v>2.32</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>33.5</v>
+        <v>40.2</v>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="J58" t="n">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L58" t="n">
         <v>0.1</v>
@@ -2781,38 +2781,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Will Dissly (LAC)</t>
+          <t>Cole Turner (WAS)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="D59" t="n">
-        <v>-7</v>
+        <v>16</v>
       </c>
       <c r="E59" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>40.2</v>
+        <v>23</v>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H59" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="I59" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="J59" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L59" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Connor Heyward (PIT)</t>
+          <t>Greg Dulcich (DEN)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="D60" t="n">
-        <v>-6</v>
+        <v>38</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>39.7</v>
+        <v>5.5</v>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -2861,32 +2861,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Drew Sample (CIN)</t>
+          <t>Will Dissly (LAC)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4.5</v>
+        <v>2.22</v>
       </c>
       <c r="D61" t="n">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="E61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>50.3</v>
+        <v>40.2</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="I61" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J61" t="n">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="K61" t="n">
         <v>0.1</v>
@@ -2901,38 +2901,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jeremy Ruckert (NYJ)</t>
+          <t>Irv Smith Jr. (KC)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4.4</v>
+        <v>2.22</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>31.1</v>
+        <v>33.5</v>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="J62" t="n">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2941,38 +2941,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Johnny Mundt (MIN)</t>
+          <t>John Bates (WAS)</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4.4</v>
+        <v>2.15</v>
       </c>
       <c r="D63" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E63" t="n">
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>40.2</v>
+        <v>34.1</v>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="I63" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J63" t="n">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="K63" t="n">
         <v>0.1</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2981,38 +2981,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mo Alie-Cox (IND)</t>
+          <t>Drew Sample (CIN)</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D64" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="E64" t="n">
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>49.1</v>
+        <v>50.3</v>
       </c>
       <c r="G64" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="I64" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="J64" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="K64" t="n">
         <v>0.1</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65">
@@ -3021,35 +3021,35 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cole Turner (WAS)</t>
+          <t>Stephen Sullivan (CAR)</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="I65" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="J65" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -3061,38 +3061,38 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Stone Smartt (LAC)</t>
+          <t>Luke Farrell (JAC)</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.1</v>
+        <v>2.08</v>
       </c>
       <c r="D66" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>32.5</v>
+        <v>28.5</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I66" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="J66" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L66" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3101,38 +3101,38 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>John Bates (WAS)</t>
+          <t>Andrew Beck (HOU)</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="D67" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>34.1</v>
+        <v>38.8</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="I67" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="J67" t="n">
-        <v>8.9</v>
+        <v>3.7</v>
       </c>
       <c r="K67" t="n">
         <v>0.1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
@@ -3141,38 +3141,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Josh Whyle (TEN)</t>
+          <t>Jeremy Ruckert (NYJ)</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="E68" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>24.4</v>
+        <v>31.1</v>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="I68" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J68" t="n">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="K68" t="n">
         <v>0.1</v>
       </c>
       <c r="L68" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3181,38 +3181,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Luke Farrell (JAC)</t>
+          <t>Josh Whyle (TEN)</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.7</v>
+        <v>2.01</v>
       </c>
       <c r="D69" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E69" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>28.5</v>
+        <v>24.4</v>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0.8</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="J69" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="K69" t="n">
         <v>0.1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="70">
@@ -3221,35 +3221,35 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jordan Akins (CLE)</t>
+          <t>Connor Heyward (PIT)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.5</v>
+        <v>1.98</v>
       </c>
       <c r="D70" t="n">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="E70" t="n">
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>28.2</v>
+        <v>39.7</v>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="I70" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.1</v>
+        <v>1.89</v>
       </c>
       <c r="D71" t="n">
         <v>-3</v>
@@ -3301,32 +3301,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Geoff Swaim (FA)</t>
+          <t>Jordan Akins (CLE)</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.9</v>
+        <v>1.84</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>19.4</v>
+        <v>28.2</v>
       </c>
       <c r="G72" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I72" t="n">
         <v>1.4</v>
       </c>
-      <c r="H72" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J72" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="K72" t="n">
         <v>0.1</v>
@@ -3341,38 +3341,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Robert Tonyan (MIN)</t>
+          <t>Davis Allen (LAR)</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.8</v>
+        <v>1.68</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F73" t="n">
-        <v>22.2</v>
+        <v>25.5</v>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J73" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="K73" t="n">
         <v>0.1</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74">
@@ -3381,38 +3381,38 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Davis Allen (LAR)</t>
+          <t>Geoff Swaim (FA)</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="D74" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" t="n">
-        <v>25.5</v>
+        <v>19.4</v>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0.7</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J74" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="K74" t="n">
         <v>0.1</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.8</v>
+        <v>1.63</v>
       </c>
       <c r="D75" t="n">
         <v>-5</v>
@@ -3461,38 +3461,38 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Harrison Bryant (LV)</t>
+          <t>C.J. Uzomah (PHI)</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="D76" t="n">
-        <v>-19</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>37.9</v>
+        <v>19.8</v>
       </c>
       <c r="G76" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I76" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>4.8</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="77">
@@ -3501,38 +3501,38 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Charlie Kolar (BAL)</t>
+          <t>Payne Durham (TB)</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F77" t="n">
-        <v>21.7</v>
+        <v>10.8</v>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I77" t="n">
         <v>0.5</v>
       </c>
-      <c r="I77" t="n">
-        <v>0.6</v>
-      </c>
       <c r="J77" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3541,38 +3541,38 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>C.J. Uzomah (PHI)</t>
+          <t>Harrison Bryant (LV)</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.4</v>
+        <v>1.58</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>19.8</v>
+        <v>37.9</v>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J78" t="n">
         <v>4.8</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79">
@@ -3581,35 +3581,35 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kenny Yeboah (NYJ)</t>
+          <t>Robert Tonyan (MIN)</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="D79" t="n">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>4.8</v>
+        <v>22.2</v>
       </c>
       <c r="G79" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.8</v>
-      </c>
       <c r="J79" t="n">
-        <v>5.6</v>
+        <v>6.6</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3621,23 +3621,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Peyton Hendershot (DAL)</t>
+          <t>Luke Schoonmaker (DAL)</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>7.8</v>
+        <v>26.5</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0.5</v>
@@ -3646,13 +3646,13 @@
         <v>0.9</v>
       </c>
       <c r="J80" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3661,35 +3661,35 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Andrew Beck (HOU)</t>
+          <t>Charlie Kolar (BAL)</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="D81" t="n">
-        <v>-26</v>
+        <v>-4</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" t="n">
-        <v>38.8</v>
+        <v>21.7</v>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J81" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="K81" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0.1</v>
@@ -3701,32 +3701,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ian Thomas (CAR)</t>
+          <t>Brycen Hopkins (FA)</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>10.6</v>
+        <v>12.8</v>
       </c>
       <c r="G82" t="n">
         <v>0.9</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J82" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="K82" t="n">
         <v>0.1</v>
@@ -3741,32 +3741,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Brycen Hopkins (FA)</t>
+          <t>Ian Thomas (CAR)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>12.8</v>
+        <v>10.6</v>
       </c>
       <c r="G83" t="n">
         <v>0.9</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J83" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K83" t="n">
         <v>0.1</v>
@@ -3781,23 +3781,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Luke Schoonmaker (DAL)</t>
+          <t>Peyton Hendershot (DAL)</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1.39</v>
       </c>
       <c r="D84" t="n">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>26.5</v>
+        <v>7.8</v>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0.5</v>
@@ -3806,13 +3806,13 @@
         <v>0.9</v>
       </c>
       <c r="J84" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L84" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3821,35 +3821,35 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Teagan Quitoriano (HOU)</t>
+          <t>Kenny Yeboah (NYJ)</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="D85" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I85" t="n">
         <v>0.8</v>
       </c>
-      <c r="H85" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.4</v>
-      </c>
       <c r="J85" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="K85" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -3861,35 +3861,35 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Payne Durham (TB)</t>
+          <t>Josiah Deguara (JAC)</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.9</v>
+        <v>1.27</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>10.8</v>
+        <v>14.5</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I86" t="n">
         <v>0.5</v>
       </c>
       <c r="J86" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -3901,38 +3901,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jimmy Graham (FA)</t>
+          <t>Teagan Quitoriano (HOU)</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.8</v>
+        <v>1.24</v>
       </c>
       <c r="D87" t="n">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>33.9</v>
+        <v>5.3</v>
       </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J87" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3941,17 +3941,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Josiah Deguara (JAC)</t>
+          <t>Brenton Strange (JAC)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="D88" t="n">
         <v>-7</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F88" t="n">
         <v>14.5</v>
@@ -3960,19 +3960,19 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J88" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="89">
@@ -3981,32 +3981,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Darnell Washington (PIT)</t>
+          <t>Mitchell Wilcox (NE)</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.6</v>
+        <v>1.08</v>
       </c>
       <c r="D89" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="E89" t="n">
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>13.1</v>
+        <v>14.6</v>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J89" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4021,32 +4021,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mitchell Wilcox (NE)</t>
+          <t>Darnell Washington (PIT)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="D90" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="E90" t="n">
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>14.6</v>
+        <v>13.1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J90" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4061,23 +4061,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lawrence Cager (NYG)</t>
+          <t>Julian Hill (MIA)</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.6</v>
+        <v>1.07</v>
       </c>
       <c r="D91" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0.4</v>
@@ -4086,13 +4086,13 @@
         <v>0.6</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4101,38 +4101,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Julian Hill (MIA)</t>
+          <t>Quintin Morris (BUF)</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="D92" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E92" t="n">
         <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>8.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93">
@@ -4141,38 +4141,38 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cole Fotheringham (LV)</t>
+          <t>Ben Sims (GB)</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.4</v>
+        <v>0.97</v>
       </c>
       <c r="D93" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E93" t="n">
         <v>16</v>
       </c>
-      <c r="E93" t="n">
-        <v>2</v>
-      </c>
       <c r="F93" t="n">
-        <v>1.6</v>
+        <v>12.1</v>
       </c>
       <c r="G93" t="n">
         <v>0.8</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J93" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="94">
@@ -4181,38 +4181,38 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Brenton Strange (JAC)</t>
+          <t>Cole Fotheringham (LV)</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.3</v>
+        <v>0.97</v>
       </c>
       <c r="D94" t="n">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>14.5</v>
+        <v>1.6</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J94" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4221,35 +4221,35 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Grant Calcaterra (PHI)</t>
+          <t>James Mitchell (DET)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="D95" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
         <v>14</v>
       </c>
       <c r="F95" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -4261,35 +4261,35 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Nate Adkins (DEN)</t>
+          <t>Charlie Woerner (ATL)</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F96" t="n">
         <v>6.2</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I96" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J96" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -4301,26 +4301,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jack Stoll (NYG)</t>
+          <t>Nate Adkins (DEN)</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="D97" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E97" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I97" t="n">
         <v>0.5</v>
@@ -4341,38 +4341,38 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Marcedes Lewis (CHI)</t>
+          <t>Jack Stoll (NYG)</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0.9</v>
       </c>
       <c r="D98" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="E98" t="n">
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>12.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J98" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4381,38 +4381,38 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Blake Bell (FA)</t>
+          <t>Grant Calcaterra (PHI)</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>0.9</v>
       </c>
       <c r="D99" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="E99" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>11.6</v>
+        <v>7.9</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0.3</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J99" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4421,38 +4421,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Quintin Morris (BUF)</t>
+          <t>Jimmy Graham (FA)</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="D100" t="n">
-        <v>-11</v>
+        <v>-38</v>
       </c>
       <c r="E100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>10.6</v>
+        <v>33.9</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J100" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
@@ -4461,38 +4461,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>James Mitchell (DET)</t>
+          <t>Blake Bell (FA)</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="E101" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>4.8</v>
+        <v>11.6</v>
       </c>
       <c r="G101" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.3</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4501,20 +4501,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ben Sims (GB)</t>
+          <t>Marcedes Lewis (CHI)</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D102" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>12.1</v>
+        <v>12.9</v>
       </c>
       <c r="G102" t="n">
         <v>0.8</v>
@@ -4523,10 +4523,10 @@
         <v>0.2</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J102" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -4541,35 +4541,35 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Eric Saubert (SF)</t>
+          <t>Trevon Wesco (FA)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F103" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -4581,35 +4581,35 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Charlie Woerner (ATL)</t>
+          <t>Eric Saubert (SF)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="D104" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="E104" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="G104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.4</v>
       </c>
-      <c r="H104" t="n">
-        <v>0.2</v>
-      </c>
       <c r="I104" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="J104" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -4621,32 +4621,32 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tucker Fisk (FA)</t>
+          <t>John FitzPatrick (ATL)</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="G105" t="n">
         <v>0.3</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -4661,38 +4661,38 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>John FitzPatrick (ATL)</t>
+          <t>Lawrence Cager (NYG)</t>
         </is>
       </c>
       <c r="C106" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I106" t="n">
         <v>0.6</v>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>7</v>
-      </c>
-      <c r="F106" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H106" t="n">
+      <c r="J106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0.1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4701,20 +4701,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Trevon Wesco (FA)</t>
+          <t>Ross Dwelley (ATL)</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D107" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="G107" t="n">
         <v>0.2</v>
@@ -4726,10 +4726,10 @@
         <v>0.2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -4741,32 +4741,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ross Dwelley (ATL)</t>
+          <t>Tucker Fisk (FA)</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D108" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.2</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.1</v>
       </c>
       <c r="I108" t="n">
         <v>0.2</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -4781,32 +4781,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Jesper Horsted (NO)</t>
+          <t>Chris Manhertz (NYG)</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.4</v>
+        <v>0.66</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F109" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I109" t="n">
         <v>0.2</v>
       </c>
       <c r="J109" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -4821,39 +4821,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Chris Manhertz (NYG)</t>
+          <t>Matt Orzech (GB)</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="D110" t="n">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4861,39 +4851,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Kevin Rader (FA)</t>
+          <t>Tyler Mabry (SEA)</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
       <c r="D111" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4901,39 +4881,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ko Kieft (TB)</t>
+          <t>Patrick Murtagh (JAC)</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
       <c r="D112" t="n">
-        <v>-17</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4941,39 +4911,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Giovanni Ricci (CLE)</t>
+          <t>Thomas Odukoya (TEN)</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4981,39 +4941,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nick Vannett (TEN)</t>
+          <t>Jake Tonges (SF)</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.2</v>
+        <v>0.64</v>
       </c>
       <c r="D114" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5021,17 +4971,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sean McKeon (DET)</t>
+          <t>Shawn Bowman (JAC)</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -5039,21 +4989,11 @@
       <c r="G115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5061,17 +5001,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rodney Williams (PIT)</t>
+          <t>Riley Sharp (BAL)</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="D116" t="n">
         <v>-1</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -5079,21 +5019,11 @@
       <c r="G116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5101,17 +5031,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Albert Okwuegbunam Jr. (PHI)</t>
+          <t>Cam Grandy (CIN)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.1</v>
+        <v>0.64</v>
       </c>
       <c r="D117" t="n">
         <v>-2</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -5119,21 +5049,11 @@
       <c r="G117" t="n">
         <v>0</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5141,17 +5061,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Parker Hesse (DET)</t>
+          <t>AJ Barner (SEA)</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D118" t="n">
         <v>-3</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -5159,21 +5079,11 @@
       <c r="G118" t="n">
         <v>0</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5181,11 +5091,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Stephen Carlson (CHI)</t>
+          <t>Trey Knox (MIN)</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D119" t="n">
         <v>-4</v>
@@ -5211,11 +5121,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tommy Sweeney (CHI)</t>
+          <t>Dominique Curry (DET)</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D120" t="n">
         <v>-5</v>
@@ -5241,17 +5151,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tyree Jackson (NYG)</t>
+          <t>Joey Haynos (MIA)</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D121" t="n">
         <v>-6</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -5259,21 +5169,11 @@
       <c r="G121" t="n">
         <v>0</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5281,17 +5181,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Zach Gentry (LV)</t>
+          <t>Marquez Branson (ATL)</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D122" t="n">
         <v>-7</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -5299,21 +5199,11 @@
       <c r="G122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5321,11 +5211,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Scotty Washington (BAL)</t>
+          <t>Justin Snow (IND)</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D123" t="n">
         <v>-8</v>
@@ -5351,11 +5241,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Jody Fortson Jr. (MIA)</t>
+          <t>Eric Tomlinson (IND)</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D124" t="n">
         <v>-9</v>
@@ -5381,32 +5271,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mitchell Fraboni (DEN)</t>
+          <t>Kevin Rader (FA)</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D125" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="E125" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -5421,29 +5311,39 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Matt Orzech (GB)</t>
+          <t>Nick Vannett (TEN)</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="D126" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5451,32 +5351,32 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Derek Parish (FA)</t>
+          <t>Giovanni Ricci (CLE)</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="D127" t="n">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -5491,17 +5391,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Noah Togiai (FA)</t>
+          <t>Mitchell Fraboni (DEN)</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D128" t="n">
         <v>-13</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5531,17 +5431,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tyler Mabry (SEA)</t>
+          <t>Dalton Keene (HOU)</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D129" t="n">
         <v>-14</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5549,11 +5449,21 @@
       <c r="G129" t="n">
         <v>0</v>
       </c>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5561,11 +5471,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tyler Davis (GB)</t>
+          <t>Tommy Sweeney (CHI)</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D130" t="n">
         <v>-15</v>
@@ -5591,17 +5501,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Tommy Hudson (NO)</t>
+          <t>Tyree Jackson (NYG)</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D131" t="n">
         <v>-16</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5609,11 +5519,21 @@
       <c r="G131" t="n">
         <v>0</v>
       </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5621,11 +5541,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cade Stover (HOU)</t>
+          <t>Stephen Carlson (CHI)</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D132" t="n">
         <v>-17</v>
@@ -5651,17 +5571,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Zack Kuntz (NYJ)</t>
+          <t>Jody Fortson Jr. (MIA)</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D133" t="n">
         <v>-18</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5669,21 +5589,11 @@
       <c r="G133" t="n">
         <v>0</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5691,17 +5601,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Brayden Willis (SF)</t>
+          <t>Scotty Washington (BAL)</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D134" t="n">
         <v>-19</v>
       </c>
       <c r="E134" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5709,21 +5619,11 @@
       <c r="G134" t="n">
         <v>0</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5731,11 +5631,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Patrick Murtagh (JAC)</t>
+          <t>Tyler Davis (GB)</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D135" t="n">
         <v>-20</v>
@@ -5761,11 +5661,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Joel Wilson (GB)</t>
+          <t>Tommy Hudson (NO)</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D136" t="n">
         <v>-21</v>
@@ -5791,17 +5691,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Blake Whiteheart (ARI)</t>
+          <t>Cade Stover (HOU)</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D137" t="n">
         <v>-22</v>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5809,21 +5709,11 @@
       <c r="G137" t="n">
         <v>0</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0</v>
-      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5831,11 +5721,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Henry Pearson (GB)</t>
+          <t>Zack Kuntz (NYJ)</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D138" t="n">
         <v>-23</v>
@@ -5871,17 +5761,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>E.J. Jenkins (PHI)</t>
+          <t>Brayden Willis (SF)</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D139" t="n">
         <v>-24</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5889,11 +5779,21 @@
       <c r="G139" t="n">
         <v>0</v>
       </c>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5901,17 +5801,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Brady Russell (SEA)</t>
+          <t>Derek Parish (FA)</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D140" t="n">
         <v>-25</v>
       </c>
       <c r="E140" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5941,17 +5841,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Travis Vokolek (ARI)</t>
+          <t>Joel Wilson (GB)</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D141" t="n">
         <v>-26</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5959,21 +5859,11 @@
       <c r="G141" t="n">
         <v>0</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5981,17 +5871,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Matt Sokol (FA)</t>
+          <t>Blake Whiteheart (ARI)</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D142" t="n">
         <v>-27</v>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -6021,17 +5911,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Devin Culp (TB)</t>
+          <t>Henry Pearson (GB)</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D143" t="n">
         <v>-28</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -6039,11 +5929,21 @@
       <c r="G143" t="n">
         <v>0</v>
       </c>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -6051,17 +5951,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Thomas Odukoya (TEN)</t>
+          <t>Brady Russell (SEA)</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D144" t="n">
         <v>-29</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -6069,11 +5969,21 @@
       <c r="G144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6081,17 +5991,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chris Pierce Jr. (FA)</t>
+          <t>E.J. Jenkins (PHI)</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D145" t="n">
         <v>-30</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -6099,21 +6009,11 @@
       <c r="G145" t="n">
         <v>0</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6121,17 +6021,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tanner Taula (TB)</t>
+          <t>Travis Vokolek (ARI)</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D146" t="n">
         <v>-31</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -6139,11 +6039,21 @@
       <c r="G146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6151,11 +6061,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dallin Holker (NO)</t>
+          <t>Tanner Taula (TB)</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D147" t="n">
         <v>-32</v>
@@ -6181,17 +6091,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Jaheim Bell (NE)</t>
+          <t>Chris Pierce Jr. (FA)</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D148" t="n">
         <v>-33</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -6199,11 +6109,21 @@
       <c r="G148" t="n">
         <v>0</v>
       </c>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6211,17 +6131,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kehinde Oginni Hassan (ATL)</t>
+          <t>Leroy Watson IV (TEN)</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D149" t="n">
         <v>-34</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -6229,11 +6149,21 @@
       <c r="G149" t="n">
         <v>0</v>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6241,17 +6171,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Leroy Watson IV (TEN)</t>
+          <t>Dallin Holker (NO)</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D150" t="n">
         <v>-35</v>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -6259,21 +6189,11 @@
       <c r="G150" t="n">
         <v>0</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6281,11 +6201,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Jake Tonges (SF)</t>
+          <t>Jaheim Bell (NE)</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D151" t="n">
         <v>-36</v>
@@ -6311,11 +6231,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Zaire Mitchell-Paden (CLE)</t>
+          <t>Kehinde Oginni Hassan (ATL)</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D152" t="n">
         <v>-37</v>
@@ -6341,17 +6261,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Alec Holler (DAL)</t>
+          <t>Rodney Williams (PIT)</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D153" t="n">
         <v>-38</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -6359,11 +6279,21 @@
       <c r="G153" t="n">
         <v>0</v>
       </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6371,11 +6301,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tip Reiman (ARI)</t>
+          <t>Zaire Mitchell-Paden (CLE)</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D154" t="n">
         <v>-39</v>
@@ -6401,11 +6331,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Jacob Warren (NE)</t>
+          <t>Alec Holler (DAL)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D155" t="n">
         <v>-40</v>
@@ -6431,11 +6361,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jack Westover (SEA)</t>
+          <t>Tip Reiman (ARI)</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D156" t="n">
         <v>-41</v>
@@ -6461,11 +6391,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Brenden Bates (CHI)</t>
+          <t>Jacob Warren (NE)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D157" t="n">
         <v>-42</v>
@@ -6491,11 +6421,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Messiah Swinson (GB)</t>
+          <t>Jack Westover (SEA)</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D158" t="n">
         <v>-43</v>
@@ -6521,11 +6451,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Trent Pennix (IND)</t>
+          <t>Brenden Bates (CHI)</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D159" t="n">
         <v>-44</v>
@@ -6551,11 +6481,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Luke Benson (LAC)</t>
+          <t>Messiah Swinson (GB)</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D160" t="n">
         <v>-45</v>
@@ -6581,11 +6511,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Colson Yankoff (WAS)</t>
+          <t>Devin Culp (TB)</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D161" t="n">
         <v>-46</v>
@@ -6611,11 +6541,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Steven Stilianos (TEN)</t>
+          <t>Luke Benson (LAC)</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D162" t="n">
         <v>-47</v>
@@ -6641,11 +6571,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Treyton Welch (CLE)</t>
+          <t>Colson Yankoff (WAS)</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D163" t="n">
         <v>-48</v>
@@ -6671,11 +6601,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Mason Pline (SF)</t>
+          <t>Steven Stilianos (TEN)</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D164" t="n">
         <v>-49</v>
@@ -6701,11 +6631,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Thomas Yassmin (DEN)</t>
+          <t>Treyton Welch (CLE)</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D165" t="n">
         <v>-50</v>
@@ -6731,11 +6661,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Neal Johnson (LAR)</t>
+          <t>Mason Pline (SF)</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D166" t="n">
         <v>-51</v>
@@ -6761,11 +6691,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Mike Rigerman (BAL)</t>
+          <t>Thomas Yassmin (DEN)</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D167" t="n">
         <v>-52</v>
@@ -6791,11 +6721,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Kevin Foelsch (NYJ)</t>
+          <t>Neal Johnson (LAR)</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D168" t="n">
         <v>-53</v>
@@ -6821,11 +6751,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Shawn Bowman (JAC)</t>
+          <t>Trent Pennix (IND)</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D169" t="n">
         <v>-54</v>
@@ -6851,11 +6781,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lincoln Sefcik (NYJ)</t>
+          <t>Kevin Foelsch (NYJ)</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D170" t="n">
         <v>-55</v>
@@ -6881,11 +6811,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>David Martin-Robinson (TEN)</t>
+          <t>Lincoln Sefcik (NYJ)</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D171" t="n">
         <v>-56</v>
@@ -6911,11 +6841,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Riley Sharp (BAL)</t>
+          <t>Mike Rigerman (BAL)</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D172" t="n">
         <v>-57</v>
@@ -6941,11 +6871,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cam Grandy (CIN)</t>
+          <t>David Martin-Robinson (TEN)</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D173" t="n">
         <v>-58</v>
@@ -6971,17 +6901,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Dalton Keene (HOU)</t>
+          <t>John Samuel Shenker (LV)</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D174" t="n">
         <v>-59</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6989,21 +6919,11 @@
       <c r="G174" t="n">
         <v>0</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0</v>
-      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7011,17 +6931,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ben Mason (LAC)</t>
+          <t>Jordan Murray (IND)</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D175" t="n">
         <v>-60</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -7029,21 +6949,11 @@
       <c r="G175" t="n">
         <v>0</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0</v>
-      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7051,11 +6961,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>John Samuel Shenker (LV)</t>
+          <t>Princeton Fant (DAL)</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D176" t="n">
         <v>-61</v>
@@ -7081,11 +6991,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Princeton Fant (DAL)</t>
+          <t>John Stephens Jr. (DAL)</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D177" t="n">
         <v>-62</v>
@@ -7111,11 +7021,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jordan Murray (IND)</t>
+          <t>Brevyn Spann-Ford (DAL)</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D178" t="n">
         <v>-63</v>
@@ -7141,11 +7051,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Brevyn Spann-Ford (DAL)</t>
+          <t>Zach Heins (LAC)</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D179" t="n">
         <v>-64</v>
@@ -7171,11 +7081,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Zach Heins (LAC)</t>
+          <t>McCallan Castles (PHI)</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D180" t="n">
         <v>-65</v>
@@ -7201,11 +7111,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>McCallan Castles (PHI)</t>
+          <t>Tanner McLachlan (CIN)</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D181" t="n">
         <v>-66</v>
@@ -7231,11 +7141,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>John Stephens Jr. (DAL)</t>
+          <t>Jared Wiley (KC)</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D182" t="n">
         <v>-67</v>
@@ -7261,11 +7171,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jared Wiley (KC)</t>
+          <t>Ben Sinnott (WAS)</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D183" t="n">
         <v>-68</v>
@@ -7291,11 +7201,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AJ Barner (SEA)</t>
+          <t>La'Michael Pettway (NE)</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D184" t="n">
         <v>-69</v>
@@ -7321,11 +7231,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ben Sinnott (WAS)</t>
+          <t>Brock Bowers (LV)</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D185" t="n">
         <v>-70</v>
@@ -7351,11 +7261,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>La'Michael Pettway (NE)</t>
+          <t>Miller Forristall (LAR)</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D186" t="n">
         <v>-71</v>
@@ -7381,17 +7291,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Matt Bushman (FA)</t>
+          <t>Austin Stogner (ATL)</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D187" t="n">
         <v>-72</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7399,21 +7309,11 @@
       <c r="G187" t="n">
         <v>0</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0</v>
-      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7421,11 +7321,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Trey Knox (MIN)</t>
+          <t>Theo Johnson (NYG)</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D188" t="n">
         <v>-73</v>
@@ -7451,11 +7351,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Brock Bowers (LV)</t>
+          <t>Baylor Cupp (KC)</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D189" t="n">
         <v>-74</v>
@@ -7481,17 +7381,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tanner McLachlan (CIN)</t>
+          <t>Albert Okwuegbunam Jr. (PHI)</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D190" t="n">
         <v>-75</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7499,11 +7399,21 @@
       <c r="G190" t="n">
         <v>0</v>
       </c>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7511,17 +7421,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Miller Forristall (LAR)</t>
+          <t>Hunter Long (LAR)</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D191" t="n">
         <v>-76</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7529,11 +7439,21 @@
       <c r="G191" t="n">
         <v>0</v>
       </c>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7541,11 +7461,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Austin Stogner (ATL)</t>
+          <t>Armani Rogers (WAS)</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D192" t="n">
         <v>-77</v>
@@ -7571,11 +7491,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Theo Johnson (NYG)</t>
+          <t>Jelani Woods (IND)</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D193" t="n">
         <v>-78</v>
@@ -7601,11 +7521,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Baylor Cupp (KC)</t>
+          <t>Erick All Jr. (CIN)</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D194" t="n">
         <v>-79</v>
@@ -7631,17 +7551,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tre' McKitty (BUF)</t>
+          <t>Nikola Kalinic (LAR)</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D195" t="n">
         <v>-80</v>
       </c>
       <c r="E195" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7649,21 +7569,11 @@
       <c r="G195" t="n">
         <v>0</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0</v>
-      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7671,11 +7581,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Hunter Long (LAR)</t>
+          <t>Tanner Conner (MIA)</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D196" t="n">
         <v>-81</v>
@@ -7711,11 +7621,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Armani Rogers (WAS)</t>
+          <t>Cameron Latu (SF)</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D197" t="n">
         <v>-82</v>
@@ -7741,11 +7651,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Jelani Woods (IND)</t>
+          <t>Ja'Tavion Sanders (CAR)</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D198" t="n">
         <v>-83</v>
@@ -7771,11 +7681,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Erick All Jr. (CIN)</t>
+          <t>Sammis Reyes (MIN)</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D199" t="n">
         <v>-84</v>
@@ -7801,17 +7711,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nikola Kalinic (LAR)</t>
+          <t>Jacob Harris (PHI)</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D200" t="n">
         <v>-85</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7819,11 +7729,21 @@
       <c r="G200" t="n">
         <v>0</v>
       </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7831,17 +7751,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tanner Conner (MIA)</t>
+          <t>Zach Davidson (BUF)</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D201" t="n">
         <v>-86</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -7849,21 +7769,11 @@
       <c r="G201" t="n">
         <v>0</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0</v>
-      </c>
-      <c r="L201" t="n">
-        <v>0</v>
-      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -7871,11 +7781,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cameron Latu (SF)</t>
+          <t>Michael Jacobson (NO)</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D202" t="n">
         <v>-87</v>
@@ -7901,11 +7811,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ja'Tavion Sanders (CAR)</t>
+          <t>Bernhard Seikovits (ARI)</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D203" t="n">
         <v>-88</v>
@@ -7931,11 +7841,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sammis Reyes (MIN)</t>
+          <t>Shane Zylstra (DET)</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D204" t="n">
         <v>-89</v>
@@ -7961,17 +7871,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Jacob Harris (PHI)</t>
+          <t>Drake Dunsmore (TB)</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D205" t="n">
         <v>-90</v>
       </c>
       <c r="E205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -7979,21 +7889,11 @@
       <c r="G205" t="n">
         <v>0</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0</v>
-      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8001,17 +7901,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Josh Pederson (JAC)</t>
+          <t>Jordan Matthews (CAR)</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D206" t="n">
         <v>-91</v>
       </c>
       <c r="E206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -8019,21 +7919,11 @@
       <c r="G206" t="n">
         <v>0</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L206" t="n">
-        <v>0</v>
-      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8041,11 +7931,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Justin Snow (IND)</t>
+          <t>Derek Fine (HOU)</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D207" t="n">
         <v>-92</v>
@@ -8071,17 +7961,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Hunter Kampmoyer (FA)</t>
+          <t>J.P. Foschi (CIN)</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D208" t="n">
         <v>-93</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -8089,21 +7979,11 @@
       <c r="G208" t="n">
         <v>0</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0</v>
-      </c>
-      <c r="L208" t="n">
-        <v>0</v>
-      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8111,11 +7991,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Zach Davidson (BUF)</t>
+          <t>Darnell Dinkins (NO)</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D209" t="n">
         <v>-94</v>
@@ -8141,11 +8021,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Michael Jacobson (NO)</t>
+          <t>Brad Cottam (KC)</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D210" t="n">
         <v>-95</v>
@@ -8171,11 +8051,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Bernhard Seikovits (ARI)</t>
+          <t>James Dearth (NYJ)</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D211" t="n">
         <v>-96</v>
@@ -8201,11 +8081,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Shane Zylstra (DET)</t>
+          <t>Keith Zinger (ATL)</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D212" t="n">
         <v>-97</v>
@@ -8231,17 +8111,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dominique Curry (DET)</t>
+          <t>N'Keal Harry (MIN)</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D213" t="n">
         <v>-98</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -8249,11 +8129,21 @@
       <c r="G213" t="n">
         <v>0</v>
       </c>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8261,17 +8151,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Drake Dunsmore (TB)</t>
+          <t>Anthony Firkser (FA)</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D214" t="n">
         <v>-99</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -8279,11 +8169,21 @@
       <c r="G214" t="n">
         <v>0</v>
       </c>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8291,17 +8191,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Jordan Matthews (CAR)</t>
+          <t>Darrell Daniels (FA)</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D215" t="n">
         <v>-100</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -8309,11 +8209,21 @@
       <c r="G215" t="n">
         <v>0</v>
       </c>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8321,17 +8231,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Derek Fine (HOU)</t>
+          <t>J.P. Holtz (FA)</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D216" t="n">
         <v>-101</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -8339,11 +8249,21 @@
       <c r="G216" t="n">
         <v>0</v>
       </c>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8351,17 +8271,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>J.P. Foschi (CIN)</t>
+          <t>Zach Wood (NO)</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D217" t="n">
         <v>-102</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -8369,11 +8289,21 @@
       <c r="G217" t="n">
         <v>0</v>
       </c>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8381,17 +8311,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Darnell Dinkins (NO)</t>
+          <t>Jordan Thomas (FA)</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D218" t="n">
         <v>-103</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -8399,11 +8329,21 @@
       <c r="G218" t="n">
         <v>0</v>
       </c>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8411,17 +8351,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Brad Cottam (KC)</t>
+          <t>Tyler Kroft (FA)</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D219" t="n">
         <v>-104</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -8429,11 +8369,21 @@
       <c r="G219" t="n">
         <v>0</v>
       </c>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8441,17 +8391,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Joey Haynos (MIA)</t>
+          <t>Patrick Scales (CHI)</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D220" t="n">
         <v>-105</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -8459,11 +8409,21 @@
       <c r="G220" t="n">
         <v>0</v>
       </c>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8471,17 +8431,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>James Dearth (NYJ)</t>
+          <t>James Winchester (KC)</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D221" t="n">
         <v>-106</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8489,11 +8449,21 @@
       <c r="G221" t="n">
         <v>0</v>
       </c>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8501,17 +8471,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Marquez Branson (ATL)</t>
+          <t>Tyler Ott (WAS)</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D222" t="n">
         <v>-107</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8519,11 +8489,21 @@
       <c r="G222" t="n">
         <v>0</v>
       </c>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8531,17 +8511,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tyler Kroft (FA)</t>
+          <t>Stephen Anderson (FA)</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D223" t="n">
         <v>-108</v>
       </c>
       <c r="E223" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -8571,11 +8551,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Keith Zinger (ATL)</t>
+          <t>Hayden Rucci (MIA)</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="D224" t="n">
         <v>-109</v>
@@ -8601,32 +8581,32 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>N'Keal Harry (MIN)</t>
+          <t>Jesper Horsted (NO)</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D225" t="n">
-        <v>-110</v>
+        <v>-114</v>
       </c>
       <c r="E225" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -8641,32 +8621,32 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Anthony Firkser (FA)</t>
+          <t>David Wells (TB)</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D226" t="n">
-        <v>-111</v>
+        <v>-112</v>
       </c>
       <c r="E226" t="n">
+        <v>5</v>
+      </c>
+      <c r="F226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J226" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -8681,38 +8661,38 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Darrell Daniels (FA)</t>
+          <t>Ko Kieft (TB)</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="D227" t="n">
-        <v>-112</v>
+        <v>-132</v>
       </c>
       <c r="E227" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J227" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K227" t="n">
         <v>0</v>
       </c>
       <c r="L227" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="228">
@@ -8721,7 +8701,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>J.P. Holtz (FA)</t>
+          <t>Matt Sokol (FA)</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -8731,7 +8711,7 @@
         <v>-113</v>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8761,7 +8741,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Zach Wood (NO)</t>
+          <t>Parker Hesse (DET)</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -8771,7 +8751,7 @@
         <v>-114</v>
       </c>
       <c r="E229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -8801,7 +8781,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Jordan Thomas (FA)</t>
+          <t>Zach Gentry (LV)</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -8841,7 +8821,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Stephen Anderson (FA)</t>
+          <t>Noah Togiai (FA)</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -8851,7 +8831,7 @@
         <v>-116</v>
       </c>
       <c r="E231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -8881,7 +8861,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Patrick Scales (CHI)</t>
+          <t>Sean McKeon (DET)</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -8891,7 +8871,7 @@
         <v>-117</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -8903,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -8921,7 +8901,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>James Winchester (KC)</t>
+          <t>Matt Bushman (FA)</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -8961,7 +8941,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Tyler Ott (WAS)</t>
+          <t>Tre' McKitty (BUF)</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -8971,7 +8951,7 @@
         <v>-119</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -9001,7 +8981,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Eric Tomlinson (IND)</t>
+          <t>Josh Pederson (JAC)</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -9011,7 +8991,7 @@
         <v>-120</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -9019,11 +8999,21 @@
       <c r="G235" t="n">
         <v>0</v>
       </c>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9031,7 +9021,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Andrew DePaola (MIN)</t>
+          <t>Ben Mason (LAC)</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -9041,7 +9031,7 @@
         <v>-121</v>
       </c>
       <c r="E236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -9071,7 +9061,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Hayden Rucci (MIA)</t>
+          <t>Hunter Kampmoyer (FA)</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -9081,7 +9071,7 @@
         <v>-122</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -9089,11 +9079,21 @@
       <c r="G237" t="n">
         <v>0</v>
       </c>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9101,32 +9101,32 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>David Wells (TB)</t>
+          <t>Andrew DePaola (MIN)</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>-124</v>
+        <v>-123</v>
       </c>
       <c r="E238" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
